--- a/data-raw/Framework.xlsx
+++ b/data-raw/Framework.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birkenls\Documents\Git-Projekte\ValiTex_new\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birkenls\Documents\Git-Projekte\ValiTex\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8FB9EC-6F83-4AA1-9612-71999C821C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4454CBC-BC61-4095-AFA4-D32CDD9B477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Framework" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Framework!$A$1:$N$37</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Framework!$A$1:$P$37</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="183">
   <si>
     <t>Phase</t>
   </si>
@@ -49,18 +49,6 @@
   </si>
   <si>
     <t>Considerations</t>
-  </si>
-  <si>
-    <t>Dictionary</t>
-  </si>
-  <si>
-    <t>Supervised</t>
-  </si>
-  <si>
-    <t>Unsupervised: Topic Model</t>
-  </si>
-  <si>
-    <t>Unsupervised: Text Scaling</t>
   </si>
   <si>
     <t>Source / References</t>
@@ -321,9 +309,6 @@
     <t>Correspondence to external criteria</t>
   </si>
   <si>
-    <t>API</t>
-  </si>
-  <si>
     <t xml:space="preserve">Theoretical reasoning </t>
   </si>
   <si>
@@ -587,6 +572,27 @@
   </si>
   <si>
     <t>Conducting error analysis using data grouping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Applying Dictionaries </t>
+  </si>
+  <si>
+    <t>B. Classification using Traditional Supervised Machine Learning Model</t>
+  </si>
+  <si>
+    <t>C. Classification using Finetuned Machine-Learning Model</t>
+  </si>
+  <si>
+    <t>D. Zero-Shot/Few-Shot Classification (known output categories)</t>
+  </si>
+  <si>
+    <t>E. Zero-Shot/Few-Shot Classification (unknown output categories)</t>
+  </si>
+  <si>
+    <t>F. Text Scaling</t>
+  </si>
+  <si>
+    <t>G. Topic Modelling</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1260,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="27">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1275,6 +1285,22 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1448,15 +1474,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{D20F15D1-56D3-4AED-9BDC-148EA0D651EA}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="totalRow" dxfId="22"/>
-      <tableStyleElement type="firstColumn" dxfId="21"/>
-      <tableStyleElement type="lastColumn" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="totalRow" dxfId="24"/>
+      <tableStyleElement type="firstColumn" dxfId="23"/>
+      <tableStyleElement type="lastColumn" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1472,8 +1498,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="21">
-    <queryTableFields count="14">
+  <queryTableRefresh nextId="25">
+    <queryTableFields count="16">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="5" name="Validation Step" tableColumnId="5"/>
       <queryTableField id="20" dataBound="0" tableColumnId="11"/>
@@ -1483,9 +1509,11 @@
       <queryTableField id="3" name="Dimension" tableColumnId="3"/>
       <queryTableField id="8" name="Dictionary" tableColumnId="8"/>
       <queryTableField id="9" name="Supervised" tableColumnId="9"/>
+      <queryTableField id="23" dataBound="0" tableColumnId="16"/>
+      <queryTableField id="22" dataBound="0" tableColumnId="15"/>
+      <queryTableField id="21" dataBound="0" tableColumnId="14"/>
       <queryTableField id="19" dataBound="0" tableColumnId="4"/>
       <queryTableField id="10" name="Unsupervised: Topic Model" tableColumnId="10"/>
-      <queryTableField id="18" dataBound="0" tableColumnId="14"/>
       <queryTableField id="12" name="Source / References" tableColumnId="12"/>
       <queryTableField id="13" name="Comment" tableColumnId="13"/>
     </queryTableFields>
@@ -1498,21 +1526,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="file" displayName="file" ref="A1:N37" tableType="queryTable" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="ID" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Validation Step" queryTableFieldId="5" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{FFE7B798-2D3B-4C3B-88B1-05A3C969AC6F}" uniqueName="11" name="Documentation" queryTableFieldId="20" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Considerations" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Performance Criteria" queryTableFieldId="6" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Phase" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Dimension" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Dictionary" queryTableFieldId="8" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Supervised" queryTableFieldId="9" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{0C0AB610-3B97-48BF-AC14-4874B6F69AC0}" uniqueName="4" name="Unsupervised: Text Scaling" queryTableFieldId="19" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Unsupervised: Topic Model" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{B0ACA5A1-A308-4026-8DC2-55E716D7571F}" uniqueName="14" name="API" queryTableFieldId="18" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="file" displayName="file" ref="A1:P37" tableType="queryTable" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="ID" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Validation Step" queryTableFieldId="5" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{FFE7B798-2D3B-4C3B-88B1-05A3C969AC6F}" uniqueName="11" name="Documentation" queryTableFieldId="20" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Considerations" queryTableFieldId="7" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Performance Criteria" queryTableFieldId="6" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Phase" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Dimension" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="A. Applying Dictionaries " queryTableFieldId="8" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="B. Classification using Traditional Supervised Machine Learning Model" queryTableFieldId="9" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{3B825B7F-AFA1-4619-A02D-52E841A41F0E}" uniqueName="16" name="C. Classification using Finetuned Machine-Learning Model" queryTableFieldId="23" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{4D41FBDC-7911-4F04-8DFD-585455FA325C}" uniqueName="15" name="D. Zero-Shot/Few-Shot Classification (known output categories)" queryTableFieldId="22" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{46AD6DAB-F2CE-4218-8BDE-806F384443C3}" uniqueName="14" name="E. Zero-Shot/Few-Shot Classification (unknown output categories)" queryTableFieldId="21" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0C0AB610-3B97-48BF-AC14-4874B6F69AC0}" uniqueName="4" name="F. Text Scaling" queryTableFieldId="19" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="G. Topic Modelling" queryTableFieldId="10" dataDxfId="2"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Source / References" queryTableFieldId="12" dataDxfId="1"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Comment" queryTableFieldId="13" dataDxfId="0"/>
   </tableColumns>
@@ -1817,41 +1847,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.54296875" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.90625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="38.7265625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" style="22" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7265625" style="17" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="26.1796875" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="8.7265625" customWidth="1"/>
-    <col min="10" max="10" width="17.90625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="24.26953125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="27.54296875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="2"/>
+    <col min="8" max="9" width="20.90625" customWidth="1"/>
+    <col min="10" max="13" width="20.90625" style="18" customWidth="1"/>
+    <col min="14" max="14" width="20.90625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="45.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
@@ -1866,1529 +1895,1751 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>51</v>
+        <v>94</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>52</v>
+        <v>94</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>54</v>
+        <v>94</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>53</v>
+        <v>94</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>12</v>
+        <v>96</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>58</v>
+        <v>95</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>12</v>
+        <v>96</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>12</v>
+        <v>96</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="20" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="20" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="21" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="21" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:14" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="H20" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>62</v>
+        <v>94</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="H21" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>62</v>
+        <v>94</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>68</v>
+        <v>95</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O27" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>12</v>
+      <c r="P27" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>60</v>
+        <v>95</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>60</v>
+        <v>95</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
